--- a/季新婵/规划/3.8.服务场地预约App项目预算.xlsx
+++ b/季新婵/规划/3.8.服务场地预约App项目预算.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{111F3F3E-FDFF-41E0-9D52-378D6AD4D5A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D29EE-9550-4811-AD69-908CFC7D600C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>预算总计</t>
+    <t>预算总计：90000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -209,16 +209,16 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,6 +428,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6930-4CB7-8845-C9F4C37C88CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -443,6 +448,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6930-4CB7-8845-C9F4C37C88CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -458,6 +468,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6930-4CB7-8845-C9F4C37C88CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -473,6 +488,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6930-4CB7-8845-C9F4C37C88CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -488,6 +508,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6930-4CB7-8845-C9F4C37C88CB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1662,8 +1687,8 @@
   </sheetPr>
   <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1682,13 +1707,13 @@
     <row r="2" spans="2:7" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="E4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,10 +1775,10 @@
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>18000</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
